--- a/data/summary_22071512.xlsx
+++ b/data/summary_22071512.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,330 +406,369 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>34.84972375690608</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>981.1635359116023</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.4869338842975207</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.4656884297520661</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3.096022391778445</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-1.274566697907e-017</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>32.93425414364641</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.917127071823205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>34.25193370165746</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>981.0828729281768</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.1793479338842975</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1550636363636364</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.171787709558244</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.900695979623805e-005</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>32.45469613259669</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2.249171270718232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>34.00773480662983</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>981.1066298342541</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2258950413223141</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.1155347107438017</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.862600027969235</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0001308886771077666</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>31.93867403314917</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>5.978453038674034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>33.63370165745857</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>981.1127071823205</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.180497520661157</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1547289256198347</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.174185962481942</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.0001121034196730114</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>31.4</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.733149171270718</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>33.52817679558011</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>981.0160220994475</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.2102917355371901</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1803760330578512</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.381734628393313</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.0001878969973726388</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>31.16298342541436</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5.469613259668508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>33.62154696132597</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>980.9414364640884</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.2551066115702479</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1868157024793389</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.795571508556141</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0001856323165933474</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>30.7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.323204419889503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.49005524861879</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>980.8944751381215</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3180644628099174</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3155413223140496</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.003516145920623</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001385743363289738</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>30.51436464088398</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>33.45635359116022</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>980.8436464088397</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4772561983471074</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3810314049586777</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3.38544826347197</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.054872787740193e-005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30.4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.148618784530387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>33.93835616438356</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>980.7787671232876</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.9538220930232558</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.946053488372093</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5.667669393679582</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0001569909694339535</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>30.46780821917808</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>5.297945205479452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>33.97458563535911</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>980.8027624309392</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2172851239669422</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2167107438016529</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.379425347410729</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001438057290715676</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.65690607734807</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.3099447513812155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>33.4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>980.8</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.280028078324923e-016</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>31.1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>2.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>33.50331491712707</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>980.7707182320442</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.3351793388429752</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3059892561983471</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.210401880422826</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.32144791141514e-005</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>30.84806629834254</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.725414364640884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>33.45635359116022</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>980.7685082872928</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.345698347107438</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3148322314049587</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.210735620674264</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.0001318944380043378</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>30.7</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.198342541436464</v>
       </c>
     </row>
